--- a/Web/Template/EmailListTemplate.xlsx
+++ b/Web/Template/EmailListTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ascotbe/code/Medusa/Web/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2CD748-C644-0346-8D9E-42063D6EDCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6952406B-3D6B-374D-9AC0-BD9A3FB3814F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7600" yWindow="3480" windowWidth="28240" windowHeight="17440" xr2:uid="{B372E0FD-29F5-8345-986F-4C4422615EB5}"/>
   </bookViews>
@@ -35,13 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门(该行别删。项目名称请修改文件名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位（该值可以为空，其他不行）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,26 +92,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,30 +419,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9186B58B-1479-FE4A-AEBE-9B0BB8E7FAAD}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="85" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="1" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="85" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" customHeight="1">
+    <row r="1" spans="1:13" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -455,13 +451,13 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -469,13 +465,13 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -483,13 +479,13 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -497,13 +493,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -511,13 +507,13 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -525,13 +521,13 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -539,13 +535,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -553,13 +549,13 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -567,13 +563,13 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -581,13 +577,13 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -595,92 +591,93 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -693,21 +690,23 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -718,13 +717,14 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -732,10 +732,11 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -746,10 +747,11 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -760,8 +762,9 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -774,8 +777,9 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -788,8 +792,9 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -802,8 +807,9 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -816,8 +822,9 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -830,8 +837,9 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -844,6 +852,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
